--- a/medicine/Enfance/Xavier_Armange/Xavier_Armange.xlsx
+++ b/medicine/Enfance/Xavier_Armange/Xavier_Armange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xavier Armange est un écrivain, illustrateur, photographe et éditeur français né à Nantes le 17 juin 1947[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xavier Armange est un écrivain, illustrateur, photographe et éditeur français né à Nantes le 17 juin 1947.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de Lettres, il travaille dans la communication. Parallèlement il mène une carrière de romancier et d'auteur-illustrateur surtout pour la jeunesse. Il est l’auteur d’une quarantaine de livres et albums. Il a collaboré aussi à la presse jeune.
-Il crée en 1995 aux Sables-d’Olonne une maison d’édition, les éditions d'Orbestier, gérée depuis 2010 par son fils, Cyril Armange, près de Nantes. Elle propose en janvier 2024 près de 400 titres à son catalogue[2].
+Il crée en 1995 aux Sables-d’Olonne une maison d’édition, les éditions d'Orbestier, gérée depuis 2010 par son fils, Cyril Armange, près de Nantes. Elle propose en janvier 2024 près de 400 titres à son catalogue.
 Xavier Armange s'intéresse à l'Asie, particulièrement à l'Inde qu'il connaît bien et encore plus particulièrement à Bénarès. Il a publié  Bénarès, au-delà de l'Éternité (Éditions D'Orbestier).
 Xavier Armange est aussi l'auteur des Contes indiens du Seigneur Éléphant.
 En 2013, il retourne à l'illustration avec deux nouveaux albums de jeunesse : "Une nuit où je me sentais seule" (éditions MeMo) et "Les Oiseaux blancs de Manhattan" (Rêves bleus). Ce livre est sélectionné par le MAK de Vienne (Museum für angewandte Kunst) en 2022 dans l'exposition "Le livre comme médium artistique" (Bilderbuchkunst - Das Buch als künstlerisches Medium), 60 ans de créations par des artistes internationaux.
@@ -547,7 +561,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Série Les Clowns (albums, textes et illustrations, éditions Hatier)
 Le Clown de toutes les couleurs
